--- a/backlogs.xlsx
+++ b/backlogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apps\flutter\PTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E9A7F8-C892-46FE-93BE-09F57B75ADC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC217EB-0AD5-4171-855A-068AD4406025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B6A16B-CA4A-4746-8794-E5D54AF7D269}"/>
   </bookViews>
@@ -92,12 +92,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -110,39 +147,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -152,13 +157,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -167,25 +170,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -195,10 +181,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -208,13 +220,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -222,42 +236,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -271,30 +255,30 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86046FE-648A-4809-8BB2-08BDA16F5A07}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,583 +607,583 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>6</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>7</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>8</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>9</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>10</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>11</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>12</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>13</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>14</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>15</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>16</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>17</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>18</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>19</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="2">
         <v>1</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>2</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>3</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>4</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>5</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>7</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="3"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>8</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="3"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>9</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="3"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>10</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="3"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>11</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>12</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>13</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>14</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>15</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="3"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>16</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>17</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>18</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>19</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:3" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+      <c r="A67" s="2">
         <v>1</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>2</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>3</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>4</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="3"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="7"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>5</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>6</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="3"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>7</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="3"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>8</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="3"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>9</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="3"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>10</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="3"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>11</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>12</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>13</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="3"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>14</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="3"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>15</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="3"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>16</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="3"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>17</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="3"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>18</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="3"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>19</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
